--- a/test_files/test_schedule_1_mock_badTiming.xlsx
+++ b/test_files/test_schedule_1_mock_badTiming.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michael.mitter\Documents\streamscheduler\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D9CA8E-B9CF-4E1B-8E42-D093F8DE64AE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD1A23C-643E-43CE-BC91-7A34D80698F6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,13 +50,13 @@
     <t>dclive_0_1@2345</t>
   </si>
   <si>
-    <t>C:\Users\michael.mitter\Documents\streamscheduler\test_files\vids\test.mp4</t>
-  </si>
-  <si>
-    <t>C:\Users\michael.mitter\Documents\streamscheduler\test_files\vids\test2.mp4</t>
-  </si>
-  <si>
-    <t>C:\Users\michael.mitter\Documents\streamscheduler\test_files\vids\test4.mp4</t>
+    <t>test_files\vids\test.mp4</t>
+  </si>
+  <si>
+    <t>test_files\vids\test2.mp4</t>
+  </si>
+  <si>
+    <t>test_files\vids\test4.mp4</t>
   </si>
 </sst>
 </file>
@@ -913,7 +913,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/test_files/test_schedule_1_mock_badTiming.xlsx
+++ b/test_files/test_schedule_1_mock_badTiming.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michael.mitter\Documents\streamscheduler\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD1A23C-643E-43CE-BC91-7A34D80698F6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA29DBF-1AC4-4601-B4DA-068B73664364}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,13 +50,13 @@
     <t>dclive_0_1@2345</t>
   </si>
   <si>
-    <t>test_files\vids\test.mp4</t>
-  </si>
-  <si>
-    <t>test_files\vids\test2.mp4</t>
-  </si>
-  <si>
-    <t>test_files\vids\test4.mp4</t>
+    <t>test_files/vids/test.mp4</t>
+  </si>
+  <si>
+    <t>test_files/vids/test2.mp4</t>
+  </si>
+  <si>
+    <t>test_files/vids/test4.mp4</t>
   </si>
 </sst>
 </file>
@@ -913,7 +913,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
